--- a/HT36C/Tables/Table 4.xlsx
+++ b/HT36C/Tables/Table 4.xlsx
@@ -57,7 +57,7 @@
     <t>V_cold [l/min]</t>
   </si>
   <si>
-    <t>Counterflow</t>
+    <t>Counter Flow</t>
   </si>
   <si>
     <t>Parallel Flow</t>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,6 +83,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -114,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -126,7 +131,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,21 +411,41 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>40.3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>36.7</v>
+      </c>
       <c r="L2" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" s="4">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -435,21 +463,41 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="5">
+        <v>40.2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>46.9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>49.4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>36.2</v>
+      </c>
       <c r="L3" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M3" s="4">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -5752,14 +5800,6 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
@@ -5778,14 +5818,6 @@
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="2"/>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
       <c r="U208" s="2"/>
@@ -5804,14 +5836,6 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
       <c r="U209" s="2"/>
@@ -5830,14 +5854,6 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
       <c r="U210" s="2"/>
@@ -5850,20 +5866,7 @@
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
       <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
@@ -5876,20 +5879,7 @@
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
       <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
       <c r="U212" s="2"/>
@@ -5902,20 +5892,7 @@
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
       <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
       <c r="U213" s="2"/>
@@ -5928,20 +5905,6 @@
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
       <c r="U214" s="2"/>
@@ -5954,20 +5917,6 @@
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
       <c r="U215" s="2"/>
@@ -5978,22 +5927,6 @@
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
       <c r="U216" s="2"/>
@@ -6004,22 +5937,6 @@
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
       <c r="U217" s="2"/>
@@ -6030,22 +5947,6 @@
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
       <c r="U218" s="2"/>

--- a/HT36C/Tables/Table 4.xlsx
+++ b/HT36C/Tables/Table 4.xlsx
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,10 +133,16 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -429,22 +438,22 @@
       <c r="G2" s="4">
         <v>13.3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>20.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>26.9</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>31.8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>36.7</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>2.0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="5">
         <v>0.98</v>
       </c>
       <c r="N2" s="2"/>
@@ -463,40 +472,40 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>40.2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>43.7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>46.9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>49.4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>51.6</v>
       </c>
       <c r="G3" s="4">
         <v>13.4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>20.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>26.4</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>31.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>36.2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>2.0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>1.02</v>
       </c>
       <c r="N3" s="2"/>
